--- a/orders.xlsx
+++ b/orders.xlsx
@@ -141,187 +141,187 @@
     <t>105000.0</t>
   </si>
   <si>
+    <t>baochau</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Bao Chau</t>
+  </si>
+  <si>
+    <t>0367123321</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12000.0</t>
+  </si>
+  <si>
+    <t>VnPay</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>94000.0</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>88000.0</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>150000.0</t>
+  </si>
+  <si>
+    <t>thaine</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Quoc Thai</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>264000.0</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>quocthai</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Duong Thai</t>
+  </si>
+  <si>
+    <t>0874985045</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>178000.0</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>76000.0</t>
+  </si>
+  <si>
+    <t>2024-02-06</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>90000.0</t>
+  </si>
+  <si>
+    <t>thaidq</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>thai</t>
+  </si>
+  <si>
+    <t>45000.0</t>
+  </si>
+  <si>
+    <t>2024-01-27</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>2024-1-1</t>
+  </si>
+  <si>
+    <t>thune</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>01498104244</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>450000.0</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Not confirmed yet</t>
-  </si>
-  <si>
-    <t>baochau</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Bao Chau</t>
-  </si>
-  <si>
-    <t>0367123321</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12000.0</t>
-  </si>
-  <si>
-    <t>VnPay</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>94000.0</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>88000.0</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>150000.0</t>
-  </si>
-  <si>
-    <t>thaine</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Quoc Thai</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>264000.0</t>
-  </si>
-  <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
-    <t>quocthai</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Duong Thai</t>
-  </si>
-  <si>
-    <t>0874985045</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>178000.0</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>76000.0</t>
-  </si>
-  <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>90000.0</t>
-  </si>
-  <si>
-    <t>thaidq</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>thai</t>
-  </si>
-  <si>
-    <t>45000.0</t>
-  </si>
-  <si>
-    <t>2024-01-27</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>0000000</t>
-  </si>
-  <si>
-    <t>2024-1-1</t>
-  </si>
-  <si>
-    <t>thune</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>01498104244</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>450000.0</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>23</t>
@@ -809,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bb45d521-1a3f-4372-9aa6-9d623a558820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cedfe0d3-3076-4e94-9b88-446de9ef3972}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1017,7 +1017,7 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -1028,72 +1028,72 @@
     </row>
     <row r="7" spans="1:11" ht="12.75">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -1101,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1116,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
@@ -1136,7 +1136,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -1148,16 +1148,16 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
         <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
@@ -1171,7 +1171,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -1186,13 +1186,13 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -1203,31 +1203,31 @@
     </row>
     <row r="12" spans="1:11" ht="12.75">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>62</v>
       </c>
-      <c r="H12" t="s">
-        <v>63</v>
-      </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
@@ -1238,28 +1238,28 @@
     </row>
     <row r="13" spans="1:11" ht="12.75">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>67</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>68</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -1268,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -1276,34 +1276,34 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>72</v>
       </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -1311,7 +1311,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -1323,13 +1323,13 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
         <v>72</v>
       </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
@@ -1338,36 +1338,36 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
         <v>76</v>
       </c>
-      <c r="H16" t="s">
-        <v>77</v>
-      </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
@@ -1378,19 +1378,19 @@
     </row>
     <row r="17" spans="1:11" ht="12.75">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
         <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1399,7 +1399,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
@@ -1413,28 +1413,28 @@
     </row>
     <row r="18" spans="1:11" ht="12.75">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
         <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -1448,31 +1448,31 @@
     </row>
     <row r="19" spans="1:11" ht="12.75">
       <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
         <v>83</v>
       </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>84</v>
       </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -1483,28 +1483,28 @@
     </row>
     <row r="20" spans="1:11" ht="12.75">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>84</v>
-      </c>
-      <c r="H20" t="s">
-        <v>85</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -1518,34 +1518,34 @@
     </row>
     <row r="21" spans="1:11" ht="12.75">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
         <v>89</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s">
-        <v>90</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -1553,34 +1553,34 @@
     </row>
     <row r="22" spans="1:11" ht="12.75">
       <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s">
         <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" t="s">
-        <v>94</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
@@ -1588,34 +1588,34 @@
     </row>
     <row r="23" spans="1:11" ht="12.75">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" t="s">
         <v>93</v>
       </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" t="s">
-        <v>94</v>
-      </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s">
         <v>21</v>
@@ -1623,34 +1623,34 @@
     </row>
     <row r="24" spans="1:11" ht="12.75">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" t="s">
-        <v>94</v>
-      </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
@@ -1658,34 +1658,34 @@
     </row>
     <row r="25" spans="1:11" ht="12.75">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" t="s">
         <v>93</v>
       </c>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" t="s">
-        <v>94</v>
-      </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
@@ -1693,34 +1693,34 @@
     </row>
     <row r="26" spans="1:11" ht="12.75">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
         <v>93</v>
       </c>
-      <c r="F26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" t="s">
-        <v>94</v>
-      </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
@@ -1728,34 +1728,34 @@
     </row>
     <row r="27" spans="1:11" ht="12.75">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" t="s">
         <v>101</v>
       </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" t="s">
-        <v>41</v>
-      </c>
       <c r="J27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -1763,34 +1763,34 @@
     </row>
     <row r="28" spans="1:11" ht="12.75">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" t="s">
         <v>93</v>
       </c>
-      <c r="F28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" t="s">
-        <v>94</v>
-      </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -1798,34 +1798,34 @@
     </row>
     <row r="29" spans="1:11" ht="12.75">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
         <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
         <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -1833,34 +1833,34 @@
     </row>
     <row r="30" spans="1:11" ht="12.75">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
         <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
@@ -1868,34 +1868,34 @@
     </row>
     <row r="31" spans="1:11" ht="12.75">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
         <v>104</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
@@ -1903,34 +1903,34 @@
     </row>
     <row r="32" spans="1:11" ht="12.75">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
         <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -1938,19 +1938,19 @@
     </row>
     <row r="33" spans="1:11" ht="12.75">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
         <v>59</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
       </c>
       <c r="F33" t="s">
         <v>29</v>
@@ -1968,24 +1968,24 @@
         <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="12.75">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
         <v>59</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>110</v>
@@ -2008,19 +2008,19 @@
     </row>
     <row r="35" spans="1:11" ht="12.75">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
         <v>59</v>
-      </c>
-      <c r="E35" t="s">
-        <v>60</v>
       </c>
       <c r="F35" t="s">
         <v>110</v>
@@ -2032,7 +2032,7 @@
         <v>109</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
@@ -2047,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935fc06e-539b-441f-98e5-c296e89cca46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aa7bbb2d-bb2d-4aac-bb24-6a36c280f647}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="115">
   <si>
     <t>Username</t>
   </si>
@@ -51,6 +51,39 @@
     <t>Payment Method</t>
   </si>
   <si>
+    <t>thaine</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>Quoc Thai</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>0821345678</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>45000.0</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>Not confirmed yet</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
     <t>yennhi</t>
   </si>
   <si>
@@ -78,12 +111,6 @@
     <t>Confirmed</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
@@ -153,9 +180,6 @@
     <t>0367123321</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>12000.0</t>
   </si>
   <si>
@@ -183,18 +207,9 @@
     <t>150000.0</t>
   </si>
   <si>
-    <t>thaine</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
-    <t>Quoc Thai</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>0000000000</t>
   </si>
   <si>
@@ -267,9 +282,6 @@
     <t>thai</t>
   </si>
   <si>
-    <t>45000.0</t>
-  </si>
-  <si>
     <t>2024-01-27</t>
   </si>
   <si>
@@ -321,9 +333,6 @@
     <t>24</t>
   </si>
   <si>
-    <t>Not confirmed yet</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -342,16 +351,13 @@
     <t>15</t>
   </si>
   <si>
-    <t>57023.0</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>243000.0</t>
   </si>
   <si>
     <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>243000.0</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2024 Aspose Pty Ltd.</t>
@@ -809,7 +815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cedfe0d3-3076-4e94-9b88-446de9ef3972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f45c11f6-1d43-4d6b-9f06-fb36f49a5020}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -888,31 +894,31 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -923,31 +929,31 @@
     </row>
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -958,31 +964,31 @@
     </row>
     <row r="5" spans="1:11" ht="12.75">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -993,31 +999,31 @@
     </row>
     <row r="6" spans="1:11" ht="12.75">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -1028,136 +1034,136 @@
     </row>
     <row r="7" spans="1:11" ht="12.75">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
@@ -1168,31 +1174,31 @@
     </row>
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -1203,31 +1209,31 @@
     </row>
     <row r="12" spans="1:11" ht="12.75">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
@@ -1238,72 +1244,72 @@
     </row>
     <row r="13" spans="1:11" ht="12.75">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>66</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
-      </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -1311,7 +1317,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -1323,86 +1329,86 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -1413,31 +1419,31 @@
     </row>
     <row r="18" spans="1:11" ht="12.75">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -1448,31 +1454,31 @@
     </row>
     <row r="19" spans="1:11" ht="12.75">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" t="s">
-        <v>84</v>
-      </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -1483,31 +1489,31 @@
     </row>
     <row r="20" spans="1:11" ht="12.75">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -1518,34 +1524,34 @@
     </row>
     <row r="21" spans="1:11" ht="12.75">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
         <v>88</v>
       </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" t="s">
-        <v>84</v>
-      </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -1553,34 +1559,34 @@
     </row>
     <row r="22" spans="1:11" ht="12.75">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
         <v>93</v>
-      </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s">
-        <v>89</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
@@ -1588,34 +1594,34 @@
     </row>
     <row r="23" spans="1:11" ht="12.75">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
         <v>93</v>
-      </c>
-      <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s">
-        <v>89</v>
       </c>
       <c r="K23" t="s">
         <v>21</v>
@@ -1623,34 +1629,34 @@
     </row>
     <row r="24" spans="1:11" ht="12.75">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
         <v>97</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
         <v>93</v>
-      </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
-        <v>89</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
@@ -1658,34 +1664,34 @@
     </row>
     <row r="25" spans="1:11" ht="12.75">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" t="s">
         <v>97</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
         <v>93</v>
-      </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" t="s">
-        <v>89</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
@@ -1693,34 +1699,34 @@
     </row>
     <row r="26" spans="1:11" ht="12.75">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" t="s">
         <v>97</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
         <v>93</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
-        <v>89</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
@@ -1728,34 +1734,34 @@
     </row>
     <row r="27" spans="1:11" ht="12.75">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
         <v>100</v>
       </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
       <c r="G27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" t="s">
         <v>97</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
         <v>93</v>
-      </c>
-      <c r="I27" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" t="s">
-        <v>89</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -1763,34 +1769,34 @@
     </row>
     <row r="28" spans="1:11" ht="12.75">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" t="s">
         <v>97</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
         <v>93</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" t="s">
-        <v>89</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -1798,34 +1804,34 @@
     </row>
     <row r="29" spans="1:11" ht="12.75">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
         <v>93</v>
-      </c>
-      <c r="I29" t="s">
-        <v>101</v>
-      </c>
-      <c r="J29" t="s">
-        <v>89</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -1833,34 +1839,34 @@
     </row>
     <row r="30" spans="1:11" ht="12.75">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
         <v>93</v>
-      </c>
-      <c r="I30" t="s">
-        <v>101</v>
-      </c>
-      <c r="J30" t="s">
-        <v>89</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
@@ -1868,34 +1874,34 @@
     </row>
     <row r="31" spans="1:11" ht="12.75">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
         <v>93</v>
-      </c>
-      <c r="I31" t="s">
-        <v>101</v>
-      </c>
-      <c r="J31" t="s">
-        <v>89</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
@@ -1903,34 +1909,34 @@
     </row>
     <row r="32" spans="1:11" ht="12.75">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
         <v>107</v>
       </c>
-      <c r="C32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" t="s">
-        <v>104</v>
-      </c>
       <c r="H32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
         <v>93</v>
-      </c>
-      <c r="I32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" t="s">
-        <v>89</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -1938,66 +1944,66 @@
     </row>
     <row r="33" spans="1:11" ht="12.75">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="12.75">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
@@ -2008,31 +2014,31 @@
     </row>
     <row r="35" spans="1:11" ht="12.75">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
@@ -2047,7 +2053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aa7bbb2d-bb2d-4aac-bb24-6a36c280f647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ceb64c-d9e5-49d9-9180-487852910b5d}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -2056,7 +2062,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
